--- a/data/trans_bre/CoPsoQ_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>0.2726540142312051</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.355010498839805</v>
+        <v>9.3550104988398</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.1339365820028977</v>
@@ -627,7 +627,7 @@
         <v>0.01346544981609738</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2768645722906011</v>
+        <v>0.2768645722906009</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.483539721683815</v>
+        <v>-5.059378600802332</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.862225599226485</v>
+        <v>-7.128802909673102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.487884154236353</v>
+        <v>-4.017020956451269</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2269008698629369</v>
+        <v>-0.2534813462107907</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2890953201723215</v>
+        <v>-0.3098813351410814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1685830927013444</v>
+        <v>-0.1074668906227142</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.46292712628395</v>
+        <v>10.50078882247798</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.847625489749611</v>
+        <v>7.299822443569937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.01792341267983</v>
+        <v>25.05938295448009</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.6969011728082535</v>
+        <v>0.6960424378187415</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4899253190952751</v>
+        <v>0.4423633101797467</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8924872187844454</v>
+        <v>1.03349639765165</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>4.587852801965219</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.03805772693213</v>
+        <v>2.038057726932102</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3620085448022372</v>
@@ -709,7 +709,7 @@
         <v>0.2358003362105364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05410779955965657</v>
+        <v>0.05410779955965582</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.523508205805002</v>
+        <v>-2.410786717357376</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.106761993620673</v>
+        <v>-3.526142036653765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.71285257063653</v>
+        <v>-14.16241064348063</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1424931673482539</v>
+        <v>-0.1587364835692983</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1329786146441861</v>
+        <v>-0.1663671817713955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3110641690766492</v>
+        <v>-0.3159202327054622</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.99223247783994</v>
+        <v>14.64162767532987</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.91771054973385</v>
+        <v>12.78871429120563</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.65024810171955</v>
+        <v>18.06877206983037</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.122978418470187</v>
+        <v>1.244456974294145</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8410158137726839</v>
+        <v>0.7926961374487108</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6584325281711997</v>
+        <v>0.6558175933215407</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>8.170864522231156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-14.77590670893897</v>
+        <v>-14.77590670893895</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.2319580321659919</v>
@@ -791,7 +791,7 @@
         <v>0.4564618372018188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.448919936117008</v>
+        <v>-0.4489199361170075</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.32167327031062</v>
+        <v>-15.83992861634435</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.30759678486343</v>
+        <v>-3.161707417434405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-32.93535675457129</v>
+        <v>-32.82828787139015</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5222692245724868</v>
+        <v>-0.5157318671692973</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1116915555402703</v>
+        <v>-0.1521914223644961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8008593134558756</v>
+        <v>-0.8072178456714503</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.187029278647374</v>
+        <v>2.923329098275264</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.30440826429185</v>
+        <v>20.76163274100676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.560933980013899</v>
+        <v>4.095847172205748</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1535093277505617</v>
+        <v>0.1324266673223586</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.441646588380108</v>
+        <v>1.396762761086059</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2283942750263911</v>
+        <v>0.2062160212770339</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-7.104724112393182</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-10.40650649779593</v>
+        <v>-10.40650649779592</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.01397879065156988</v>
@@ -873,7 +873,7 @@
         <v>-0.2939674213980712</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3470061329385571</v>
+        <v>-0.3470061329385569</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.970052677983442</v>
+        <v>-7.148836075009371</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.60871509442196</v>
+        <v>-12.96073262712916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-21.29877522788856</v>
+        <v>-20.89994779073892</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2501511875968096</v>
+        <v>-0.2528519960360358</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.475635894025438</v>
+        <v>-0.4805786924713908</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5890886847389191</v>
+        <v>-0.5827883958203856</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.901514910916642</v>
+        <v>6.295570309082837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.262195225927281</v>
+        <v>-1.774734805109681</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.627470574302344</v>
+        <v>0.7565578768414216</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3255925827126829</v>
+        <v>0.2824523451269854</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.06316797622640882</v>
+        <v>-0.08089908021377359</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08319285463416536</v>
+        <v>0.0443905111616469</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>4.844276458300911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.924279571538039</v>
+        <v>-5.924279571538044</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.1023631095456177</v>
@@ -955,7 +955,7 @@
         <v>0.1613915482253384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.1956445775530185</v>
+        <v>-0.1956445775530186</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.067415514711346</v>
+        <v>-7.245611678309323</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.342167935856621</v>
+        <v>-5.354248619269117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-22.22556482347946</v>
+        <v>-20.97901697941419</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.263709748351907</v>
+        <v>-0.2414410502424098</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1184920249771737</v>
+        <v>-0.1505294495887664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5300453095292676</v>
+        <v>-0.5152303078634937</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.67724852771016</v>
+        <v>13.02675180989668</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.63682996907143</v>
+        <v>14.17205476685325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.548372905833855</v>
+        <v>8.848349265666428</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.6104338451519751</v>
+        <v>0.6820921420881156</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6143715628106338</v>
+        <v>0.5786997422625093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4843298330185308</v>
+        <v>0.4943845902617367</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.6079512269826226</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-3.086614360059131</v>
+        <v>-3.086614360059153</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04743113211644422</v>
@@ -1037,7 +1037,7 @@
         <v>0.02709869094246162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.09504429959976403</v>
+        <v>-0.09504429959976468</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.666244653830514</v>
+        <v>-2.610362693168111</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.753575582464952</v>
+        <v>-2.867693485563891</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-9.659084797102881</v>
+        <v>-9.854921177601662</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1106091249681924</v>
+        <v>-0.1080472432253105</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.114837396088263</v>
+        <v>-0.121143000426115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2671164209700124</v>
+        <v>-0.265167029775265</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.824917833565541</v>
+        <v>4.455446203866478</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.302333983087749</v>
+        <v>4.300164115252151</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.916627044780777</v>
+        <v>2.819744097951035</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2333998858409406</v>
+        <v>0.2090568434267266</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2056529732926522</v>
+        <v>0.2082421553733681</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1368174025284989</v>
+        <v>0.102532566552664</v>
       </c>
     </row>
     <row r="22">
